--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1877462.638263308</v>
+        <v>-1879878.157763454</v>
       </c>
     </row>
     <row r="7">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -710,19 +710,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>102.0383874616664</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>89.89170050005589</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>37.49095783279912</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>330.9979562840396</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>164.194452239849</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>349.3640271152316</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>366.7693730018897</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>25.43997453787259</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>14.48345164522491</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>362.9086049511609</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>315.5664311891571</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>26.32882004050043</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>89.04055620987452</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>114.2656173771021</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>144.7268717888065</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634819</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>113.5103646250806</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>121.8558017623733</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>15.0743711067587</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>88.52767850900844</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>120.7780517840175</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.61030329837386</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>18.93482921064982</v>
+        <v>84.69473660442844</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800355</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572899</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572899</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
         <v>172.5738126575766</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -4141,16 +4141,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
         <v>49.37728379124552</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1686.741202187451</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C2" t="n">
-        <v>1317.778685247039</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
         <v>959.5129866402885</v>
@@ -4358,22 +4358,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2417.902525088285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2164.140739726377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2073.341042251573</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2073.341042251573</v>
+        <v>1679.642609222411</v>
       </c>
       <c r="X2" t="n">
-        <v>2073.341042251573</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="Y2" t="n">
-        <v>2073.341042251573</v>
+        <v>1345.301239238533</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424004</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673422</v>
@@ -4419,10 +4419,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.6275373157412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>562.2760021459809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>562.2760021459809</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1527.841322636248</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="C5" t="n">
-        <v>1527.841322636248</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>1169.575624029498</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1169.575624029498</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1914.44116270037</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1914.44116270037</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y5" t="n">
-        <v>1914.44116270037</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="6">
@@ -4650,19 +4650,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.5384547146241</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>383.841510736975</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>383.841510736975</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>68.57273095695527</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146241</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>409.5384547146241</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.5384547146241</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1902.75190621448</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C8" t="n">
-        <v>1902.75190621448</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>1544.48620760773</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>1158.697955009485</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>747.7120502198777</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4820,10 +4820,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278602</v>
+        <v>1773.668876279069</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278602</v>
+        <v>1773.668876279069</v>
       </c>
       <c r="Y8" t="n">
-        <v>2289.351746278602</v>
+        <v>1773.668876279069</v>
       </c>
     </row>
     <row r="9">
@@ -4878,13 +4878,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598713</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.8857516585174</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>350.9495687306105</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>701.5342164887571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>701.5342164887571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>701.5342164887571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>701.5342164887571</v>
+        <v>638.1890284388842</v>
       </c>
       <c r="V10" t="n">
-        <v>701.5342164887571</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="W10" t="n">
-        <v>701.5342164887571</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="X10" t="n">
-        <v>701.5342164887571</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="Y10" t="n">
-        <v>701.5342164887571</v>
+        <v>383.5045402329973</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
@@ -5048,43 +5048,43 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5224,25 +5224,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1751.093193329805</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1751.093193329805</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>1751.093193329805</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>245.6776738607302</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,19 +5261,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
         <v>284.4401654074198</v>
@@ -5285,43 +5285,43 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N14" t="n">
-        <v>3130.95002174635</v>
+        <v>3008.107474639231</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075804</v>
+        <v>3511.079945518568</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5373,16 +5373,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>506.8067350374723</v>
+        <v>210.2179684131223</v>
       </c>
       <c r="C16" t="n">
-        <v>506.8067350374723</v>
+        <v>210.2179684131223</v>
       </c>
       <c r="D16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1100.959038351514</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W16" t="n">
-        <v>811.5418683145538</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X16" t="n">
-        <v>688.4551998677121</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y16" t="n">
-        <v>688.4551998677121</v>
+        <v>391.8664332433621</v>
       </c>
     </row>
     <row r="17">
@@ -5492,25 +5492,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551629</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
@@ -5519,46 +5519,46 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1682.725100522031</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193956</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420603</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3851.472756726941</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5613,7 +5613,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,22 +5622,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>814.7290857654818</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C19" t="n">
-        <v>645.792902837575</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D19" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1734.57685067423</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1734.57685067423</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>1445.159680637269</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>1217.170129739252</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>996.3775505957216</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5747,31 +5747,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5835,7 +5835,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1120.662598458018</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="C22" t="n">
-        <v>951.7264155301116</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1644.746393431758</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1644.746393431758</v>
+        <v>1131.790067521631</v>
       </c>
       <c r="W22" t="n">
-        <v>1355.329223394797</v>
+        <v>842.3728974846707</v>
       </c>
       <c r="X22" t="n">
-        <v>1127.33967249678</v>
+        <v>614.3833465866534</v>
       </c>
       <c r="Y22" t="n">
-        <v>1120.662598458018</v>
+        <v>393.5907674431232</v>
       </c>
     </row>
     <row r="23">
@@ -5966,52 +5966,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972662</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>260.9043113423041</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="C25" t="n">
-        <v>260.9043113423041</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="D25" t="n">
-        <v>260.9043113423041</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="E25" t="n">
-        <v>260.9043113423041</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="F25" t="n">
-        <v>260.9043113423041</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208122</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838516</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858343</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.9043113423041</v>
+        <v>362.7597382730063</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6203,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M26" t="n">
-        <v>2337.214217867999</v>
+        <v>2528.189928969821</v>
       </c>
       <c r="N26" t="n">
-        <v>3316.966490094645</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O26" t="n">
-        <v>3819.938960973982</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946815</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6309,7 +6309,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,16 +6321,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C28" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D28" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E28" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430903</v>
       </c>
       <c r="F28" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G28" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160455</v>
       </c>
       <c r="H28" t="n">
         <v>145.4370786819758</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>187.1890521477366</v>
@@ -6388,7 +6388,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L28" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M28" t="n">
         <v>1191.409234901878</v>
@@ -6403,13 +6403,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q28" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R28" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S28" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T28" t="n">
         <v>1967.452490122057</v>
@@ -6418,7 +6418,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V28" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W28" t="n">
         <v>1276.596863849073</v>
@@ -6427,7 +6427,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y28" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>932.5990189467745</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
         <v>1797.117834600129</v>
@@ -6500,7 +6500,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6543,10 +6543,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430903</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160455</v>
       </c>
       <c r="H31" t="n">
         <v>145.4370786819758</v>
@@ -6625,7 +6625,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L31" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M31" t="n">
         <v>1191.409234901878</v>
@@ -6655,16 +6655,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W31" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X31" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6704,22 +6704,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3573.86000758939</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,16 +6807,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282342</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G34" t="n">
         <v>244.2046325160447</v>
@@ -6859,10 +6859,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6880,7 +6880,7 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R34" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
         <v>2141.769472604457</v>
@@ -6895,13 +6895,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6917,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6938,22 +6938,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E36" t="n">
         <v>487.9678785494859</v>
@@ -7005,7 +7005,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215051</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774093</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F37" t="n">
         <v>364.4578361932524</v>
@@ -7093,13 +7093,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1890521477363</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490193</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L37" t="n">
-        <v>800.746804049922</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7126,7 +7126,7 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V37" t="n">
         <v>1518.56440093796</v>
@@ -7138,7 +7138,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1465.885462454824</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7205,13 +7205,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7254,10 +7254,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
@@ -7330,13 +7330,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477365</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036717</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="41">
@@ -7391,46 +7391,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>298.7494956772322</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>953.4728278125317</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1404.507041060941</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2383.057343890769</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7491,10 +7491,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215053</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774093</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F43" t="n">
         <v>364.4578361932524</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,31 +7588,31 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,52 +7646,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,64 +7701,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215058</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416721</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774098</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E46" t="n">
-        <v>463.89815074309</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932529</v>
+        <v>364.4578361932528</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
         <v>145.4370786819758</v>
@@ -7804,13 +7804,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036722</v>
+        <v>922.713999703672</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8696,13 +8696,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>344.7025836476839</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8936,16 +8936,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>124.0833809162806</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>292.5685715191227</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9167,22 +9167,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>295.4822118493972</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>14.45386895940624</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>216.9877583263329</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,22 +9644,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>192.1853085771351</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400261</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>23.80814351663537</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>258.6211785616931</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>317.5146261106144</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>241.9338129178262</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10352,25 +10352,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>294.8707872801648</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,25 +10586,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>316.1012371454191</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,22 +10820,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>400.5976869789382</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>14.45386895940638</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,22 +11066,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>344.7025836476839</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>237.860557970079</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>38.73314439442947</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-4.050093593832571e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>171.9462208285108</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>73.85778156328831</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>35.10510839313172</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>103.8538536266639</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>164.7576090751786</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>60.08779450920392</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23938,16 +23938,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>131.3595915398105</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>211.9743500537209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>147.0909790483784</v>
+        <v>81.33107165459978</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-7.673861546209082e-13</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-7.673861546209082e-13</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1222609.579811246</v>
+        <v>1222609.579811245</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1327725.475116554</v>
+        <v>1327725.475116555</v>
       </c>
     </row>
     <row r="7">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71413.33528089305</v>
+        <v>71413.33528089311</v>
       </c>
       <c r="C2" t="n">
+        <v>82104.17698642827</v>
+      </c>
+      <c r="D2" t="n">
         <v>82104.17698642831</v>
       </c>
-      <c r="D2" t="n">
-        <v>82104.17698642834</v>
-      </c>
       <c r="E2" t="n">
-        <v>79416.35737739662</v>
+        <v>79416.35737739661</v>
       </c>
       <c r="F2" t="n">
         <v>79416.35737739659</v>
       </c>
       <c r="G2" t="n">
+        <v>79416.35737739662</v>
+      </c>
+      <c r="H2" t="n">
+        <v>79416.35737739662</v>
+      </c>
+      <c r="I2" t="n">
         <v>79416.35737739659</v>
       </c>
-      <c r="H2" t="n">
-        <v>79416.35737739659</v>
-      </c>
-      <c r="I2" t="n">
-        <v>79416.35737739661</v>
-      </c>
       <c r="J2" t="n">
-        <v>82104.17698642815</v>
+        <v>82104.17698642825</v>
       </c>
       <c r="K2" t="n">
         <v>82104.17698642839</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="M2" t="n">
         <v>82104.1769864284</v>
@@ -26350,10 +26350,10 @@
         <v>82104.1769864284</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642833</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>214003.328487467</v>
+        <v>214003.3284874669</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122328.882300821</v>
+        <v>122328.8823008209</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918988</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740897</v>
       </c>
       <c r="K4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="L4" t="n">
         <v>33605.65329740899</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.653297409</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>100332.6710141021</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-723742.504297882</v>
+        <v>-724009.7753405201</v>
       </c>
       <c r="C6" t="n">
-        <v>-184103.5879341091</v>
+        <v>-184103.5879341092</v>
       </c>
       <c r="D6" t="n">
         <v>-184103.5879341091</v>
       </c>
       <c r="E6" t="n">
-        <v>-762493.0671889135</v>
+        <v>-762560.2626791395</v>
       </c>
       <c r="F6" t="n">
-        <v>-35115.65319550698</v>
+        <v>-35182.84868573273</v>
       </c>
       <c r="G6" t="n">
-        <v>-35115.65319550698</v>
+        <v>-35182.84868573277</v>
       </c>
       <c r="H6" t="n">
-        <v>-35115.65319550698</v>
+        <v>-35182.84868573276</v>
       </c>
       <c r="I6" t="n">
-        <v>-35115.65319550698</v>
+        <v>-35182.84868573279</v>
       </c>
       <c r="J6" t="n">
-        <v>-265837.47581255</v>
+        <v>-265837.4758125498</v>
       </c>
       <c r="K6" t="n">
-        <v>-51834.14732508273</v>
+        <v>-51834.1473250827</v>
       </c>
       <c r="L6" t="n">
-        <v>-51834.14732508273</v>
+        <v>-51834.14732508276</v>
       </c>
       <c r="M6" t="n">
-        <v>-181476.4621640274</v>
+        <v>-181476.4621640275</v>
       </c>
       <c r="N6" t="n">
-        <v>-51834.14732508268</v>
+        <v>-51834.1473250827</v>
       </c>
       <c r="O6" t="n">
-        <v>-89414.25661995677</v>
+        <v>-89414.25661995675</v>
       </c>
       <c r="P6" t="n">
         <v>-51834.14732508278</v>
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859255</v>
@@ -26719,13 +26719,13 @@
         <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>114.4099328959914</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>311.7500108846139</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>61.51520314918815</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>15.90886465577591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>40.10667273982176</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>141.8068465607552</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>272.0395466913661</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>50.87556506963409</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>33.67453752825594</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>120.3363719396574</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>197.2413180321032</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-2.77386944527e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33035,7 +33035,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33263,13 +33263,13 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35416,13 +35416,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>883.6236994779107</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>676.3852163291921</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>691.3305577384943</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>751.0723262417293</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>413.2158551787781</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>615.7497445457047</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>731.1064244073618</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282451</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
@@ -36601,7 +36601,7 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>562.7292593468621</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
@@ -36610,13 +36610,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>657.3831647810649</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>654.7059126660149</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>697.5239273101583</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36911,13 +36911,13 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37072,25 +37072,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>693.6327734995367</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>771.6913515377513</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37540,22 +37540,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>856.1878013712703</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37564,7 +37564,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>205.2408699281189</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
@@ -37786,22 +37786,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>883.6236994779107</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
